--- a/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/场景.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="840" windowWidth="19200" windowHeight="11175"/>
+    <workbookView windowWidth="20543" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -765,18 +760,23 @@
     </r>
   </si>
   <si>
+    <t>1000_daditu</t>
+  </si>
+  <si>
     <t>WORLDMAP</t>
-  </si>
-  <si>
-    <t>1000_daditu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -787,19 +787,19 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -815,26 +815,351 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -842,21 +1167,263 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -876,21 +1443,65 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1219,36 +1830,36 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AU203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.87962962962963" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.3796296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.1296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1296296296296" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1274,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1931,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1364,7 +1975,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1408,7 +2019,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1452,7 +2063,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1496,7 +2107,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1542,7 +2153,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1588,7 +2199,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1632,7 +2243,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1678,7 +2289,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1722,7 +2333,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1766,7 +2377,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1812,7 +2423,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1856,7 +2467,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1900,7 +2511,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1944,7 +2555,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1990,7 +2601,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2034,7 +2645,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2078,7 +2689,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2122,7 +2733,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2168,7 +2779,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2212,7 +2823,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2256,7 +2867,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2302,7 +2913,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2346,7 +2957,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2390,7 +3001,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2434,7 +3045,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2478,7 +3089,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2522,7 +3133,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2566,7 +3177,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2610,7 +3221,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2654,7 +3265,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2698,7 +3309,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2742,7 +3353,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2786,7 +3397,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2830,7 +3441,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2874,7 +3485,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2918,7 +3529,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2962,7 +3573,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -3006,7 +3617,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -3050,7 +3661,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -3094,7 +3705,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -3138,7 +3749,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -3184,7 +3795,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -3230,7 +3841,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -3274,7 +3885,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -3318,7 +3929,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -3362,7 +3973,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -3408,7 +4019,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -3452,7 +4063,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -3496,7 +4107,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -3540,7 +4151,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -3584,7 +4195,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -3628,7 +4239,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -3672,7 +4283,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -3716,7 +4327,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -3760,7 +4371,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -3804,7 +4415,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -3848,7 +4459,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -3892,7 +4503,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -3936,7 +4547,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -3980,7 +4591,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -4024,7 +4635,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -4068,7 +4679,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -4112,7 +4723,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -4156,7 +4767,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -4200,7 +4811,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -4246,7 +4857,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -4292,7 +4903,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -4338,7 +4949,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -4382,7 +4993,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28">
       <c r="A73" s="3">
         <v>69</v>
       </c>
@@ -4426,7 +5037,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>70</v>
       </c>
@@ -4472,7 +5083,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28">
       <c r="A75" s="3">
         <v>71</v>
       </c>
@@ -4516,7 +5127,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28">
       <c r="A76" s="3">
         <v>72</v>
       </c>
@@ -4562,7 +5173,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28">
       <c r="A77" s="3">
         <v>73</v>
       </c>
@@ -4606,7 +5217,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28">
       <c r="A78" s="3">
         <v>74</v>
       </c>
@@ -4650,7 +5261,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28">
       <c r="A79" s="3">
         <v>75</v>
       </c>
@@ -4694,7 +5305,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28">
       <c r="A80" s="3">
         <v>76</v>
       </c>
@@ -4738,7 +5349,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28">
       <c r="A81" s="3">
         <v>77</v>
       </c>
@@ -4782,7 +5393,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28">
       <c r="A82" s="3">
         <v>78</v>
       </c>
@@ -4826,7 +5437,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28">
       <c r="A83" s="3">
         <v>79</v>
       </c>
@@ -4870,7 +5481,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>80</v>
       </c>
@@ -4914,7 +5525,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28">
       <c r="A85" s="3">
         <v>81</v>
       </c>
@@ -4958,7 +5569,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>82</v>
       </c>
@@ -5002,7 +5613,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28">
       <c r="A87" s="3">
         <v>83</v>
       </c>
@@ -5048,7 +5659,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:47">
       <c r="A88" s="3">
         <v>1000</v>
       </c>
@@ -5056,7 +5667,7 @@
         <v>199</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D88" s="6">
         <v>-1</v>
@@ -5071,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -5113,7 +5724,7 @@
       <c r="AT88" s="3"/>
       <c r="AU88" s="3"/>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:47">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5162,7 +5773,7 @@
       <c r="AT89" s="3"/>
       <c r="AU89" s="3"/>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:47">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5211,7 +5822,7 @@
       <c r="AT90" s="3"/>
       <c r="AU90" s="3"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:47">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5260,7 +5871,7 @@
       <c r="AT91" s="3"/>
       <c r="AU91" s="3"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:47">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5309,7 +5920,7 @@
       <c r="AT92" s="3"/>
       <c r="AU92" s="3"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:47">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5358,7 +5969,7 @@
       <c r="AT93" s="3"/>
       <c r="AU93" s="3"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:47">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5407,7 +6018,7 @@
       <c r="AT94" s="3"/>
       <c r="AU94" s="3"/>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:47">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5456,7 +6067,7 @@
       <c r="AT95" s="3"/>
       <c r="AU95" s="3"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:47">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5505,7 +6116,7 @@
       <c r="AT96" s="3"/>
       <c r="AU96" s="3"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:47">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -5554,7 +6165,7 @@
       <c r="AT97" s="3"/>
       <c r="AU97" s="3"/>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:47">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -5603,7 +6214,7 @@
       <c r="AT98" s="3"/>
       <c r="AU98" s="3"/>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:47">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -5652,7 +6263,7 @@
       <c r="AT99" s="3"/>
       <c r="AU99" s="3"/>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:47">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -5701,7 +6312,7 @@
       <c r="AT100" s="3"/>
       <c r="AU100" s="3"/>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:47">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -5750,7 +6361,7 @@
       <c r="AT101" s="3"/>
       <c r="AU101" s="3"/>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:47">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -5799,7 +6410,7 @@
       <c r="AT102" s="3"/>
       <c r="AU102" s="3"/>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:47">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -5848,7 +6459,7 @@
       <c r="AT103" s="3"/>
       <c r="AU103" s="3"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:47">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -5897,7 +6508,7 @@
       <c r="AT104" s="3"/>
       <c r="AU104" s="3"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:47">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -5946,7 +6557,7 @@
       <c r="AT105" s="3"/>
       <c r="AU105" s="3"/>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:47">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5995,7 +6606,7 @@
       <c r="AT106" s="3"/>
       <c r="AU106" s="3"/>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:47">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6044,7 +6655,7 @@
       <c r="AT107" s="3"/>
       <c r="AU107" s="3"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:47">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6093,7 +6704,7 @@
       <c r="AT108" s="3"/>
       <c r="AU108" s="3"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:47">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6142,7 +6753,7 @@
       <c r="AT109" s="3"/>
       <c r="AU109" s="3"/>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:47">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6191,7 +6802,7 @@
       <c r="AT110" s="3"/>
       <c r="AU110" s="3"/>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:47">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6240,7 +6851,7 @@
       <c r="AT111" s="3"/>
       <c r="AU111" s="3"/>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:47">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6289,7 +6900,7 @@
       <c r="AT112" s="3"/>
       <c r="AU112" s="3"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:47">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6338,7 +6949,7 @@
       <c r="AT113" s="3"/>
       <c r="AU113" s="3"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:47">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6387,7 +6998,7 @@
       <c r="AT114" s="3"/>
       <c r="AU114" s="3"/>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:47">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6436,7 +7047,7 @@
       <c r="AT115" s="3"/>
       <c r="AU115" s="3"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:47">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6485,7 +7096,7 @@
       <c r="AT116" s="3"/>
       <c r="AU116" s="3"/>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:47">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6534,7 +7145,7 @@
       <c r="AT117" s="3"/>
       <c r="AU117" s="3"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:47">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6583,7 +7194,7 @@
       <c r="AT118" s="3"/>
       <c r="AU118" s="3"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:47">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6632,7 +7243,7 @@
       <c r="AT119" s="3"/>
       <c r="AU119" s="3"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:47">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6681,7 +7292,7 @@
       <c r="AT120" s="3"/>
       <c r="AU120" s="3"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:47">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6730,7 +7341,7 @@
       <c r="AT121" s="3"/>
       <c r="AU121" s="3"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:47">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6779,7 +7390,7 @@
       <c r="AT122" s="3"/>
       <c r="AU122" s="3"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:47">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6828,7 +7439,7 @@
       <c r="AT123" s="3"/>
       <c r="AU123" s="3"/>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:47">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6877,7 +7488,7 @@
       <c r="AT124" s="3"/>
       <c r="AU124" s="3"/>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:47">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6926,7 +7537,7 @@
       <c r="AT125" s="3"/>
       <c r="AU125" s="3"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:47">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6975,7 +7586,7 @@
       <c r="AT126" s="3"/>
       <c r="AU126" s="3"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:47">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7024,7 +7635,7 @@
       <c r="AT127" s="3"/>
       <c r="AU127" s="3"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:47">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -7073,7 +7684,7 @@
       <c r="AT128" s="3"/>
       <c r="AU128" s="3"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:47">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -7122,7 +7733,7 @@
       <c r="AT129" s="3"/>
       <c r="AU129" s="3"/>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:47">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -7171,7 +7782,7 @@
       <c r="AT130" s="3"/>
       <c r="AU130" s="3"/>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:47">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -7220,7 +7831,7 @@
       <c r="AT131" s="3"/>
       <c r="AU131" s="3"/>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:47">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -7269,7 +7880,7 @@
       <c r="AT132" s="3"/>
       <c r="AU132" s="3"/>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:47">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -7318,7 +7929,7 @@
       <c r="AT133" s="3"/>
       <c r="AU133" s="3"/>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:47">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -7367,7 +7978,7 @@
       <c r="AT134" s="3"/>
       <c r="AU134" s="3"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:47">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -7416,7 +8027,7 @@
       <c r="AT135" s="3"/>
       <c r="AU135" s="3"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:47">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -7465,7 +8076,7 @@
       <c r="AT136" s="3"/>
       <c r="AU136" s="3"/>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:47">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -7514,7 +8125,7 @@
       <c r="AT137" s="3"/>
       <c r="AU137" s="3"/>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:47">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -7563,7 +8174,7 @@
       <c r="AT138" s="3"/>
       <c r="AU138" s="3"/>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:47">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -7612,7 +8223,7 @@
       <c r="AT139" s="3"/>
       <c r="AU139" s="3"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:47">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -7661,7 +8272,7 @@
       <c r="AT140" s="3"/>
       <c r="AU140" s="3"/>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:47">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -7710,7 +8321,7 @@
       <c r="AT141" s="3"/>
       <c r="AU141" s="3"/>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:47">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -7759,7 +8370,7 @@
       <c r="AT142" s="3"/>
       <c r="AU142" s="3"/>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:47">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -7808,7 +8419,7 @@
       <c r="AT143" s="3"/>
       <c r="AU143" s="3"/>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:47">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -7857,7 +8468,7 @@
       <c r="AT144" s="3"/>
       <c r="AU144" s="3"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:47">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -7906,7 +8517,7 @@
       <c r="AT145" s="3"/>
       <c r="AU145" s="3"/>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:47">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -7955,7 +8566,7 @@
       <c r="AT146" s="3"/>
       <c r="AU146" s="3"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:47">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -8004,7 +8615,7 @@
       <c r="AT147" s="3"/>
       <c r="AU147" s="3"/>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:47">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -8053,7 +8664,7 @@
       <c r="AT148" s="3"/>
       <c r="AU148" s="3"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:47">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -8102,7 +8713,7 @@
       <c r="AT149" s="3"/>
       <c r="AU149" s="3"/>
     </row>
-    <row r="150" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:47">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -8151,7 +8762,7 @@
       <c r="AT150" s="3"/>
       <c r="AU150" s="3"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:47">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -8200,7 +8811,7 @@
       <c r="AT151" s="3"/>
       <c r="AU151" s="3"/>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:47">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -8249,7 +8860,7 @@
       <c r="AT152" s="3"/>
       <c r="AU152" s="3"/>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:47">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -8298,7 +8909,7 @@
       <c r="AT153" s="3"/>
       <c r="AU153" s="3"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:47">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -8347,7 +8958,7 @@
       <c r="AT154" s="3"/>
       <c r="AU154" s="3"/>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:47">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -8396,7 +9007,7 @@
       <c r="AT155" s="3"/>
       <c r="AU155" s="3"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:47">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -8445,7 +9056,7 @@
       <c r="AT156" s="3"/>
       <c r="AU156" s="3"/>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:47">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -8494,7 +9105,7 @@
       <c r="AT157" s="3"/>
       <c r="AU157" s="3"/>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:47">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -8543,7 +9154,7 @@
       <c r="AT158" s="3"/>
       <c r="AU158" s="3"/>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:47">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -8592,7 +9203,7 @@
       <c r="AT159" s="3"/>
       <c r="AU159" s="3"/>
     </row>
-    <row r="160" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:47">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -8641,7 +9252,7 @@
       <c r="AT160" s="3"/>
       <c r="AU160" s="3"/>
     </row>
-    <row r="161" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:47">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -8690,7 +9301,7 @@
       <c r="AT161" s="3"/>
       <c r="AU161" s="3"/>
     </row>
-    <row r="162" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:47">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -8739,7 +9350,7 @@
       <c r="AT162" s="3"/>
       <c r="AU162" s="3"/>
     </row>
-    <row r="163" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:47">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -8788,7 +9399,7 @@
       <c r="AT163" s="3"/>
       <c r="AU163" s="3"/>
     </row>
-    <row r="164" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:47">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -8837,7 +9448,7 @@
       <c r="AT164" s="3"/>
       <c r="AU164" s="3"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:47">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -8886,7 +9497,7 @@
       <c r="AT165" s="3"/>
       <c r="AU165" s="3"/>
     </row>
-    <row r="166" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:47">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -8935,7 +9546,7 @@
       <c r="AT166" s="3"/>
       <c r="AU166" s="3"/>
     </row>
-    <row r="167" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:47">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -8984,7 +9595,7 @@
       <c r="AT167" s="3"/>
       <c r="AU167" s="3"/>
     </row>
-    <row r="168" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:47">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -9033,7 +9644,7 @@
       <c r="AT168" s="3"/>
       <c r="AU168" s="3"/>
     </row>
-    <row r="169" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:47">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -9082,7 +9693,7 @@
       <c r="AT169" s="3"/>
       <c r="AU169" s="3"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:47">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -9131,7 +9742,7 @@
       <c r="AT170" s="3"/>
       <c r="AU170" s="3"/>
     </row>
-    <row r="171" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:47">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -9180,7 +9791,7 @@
       <c r="AT171" s="3"/>
       <c r="AU171" s="3"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:47">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -9229,7 +9840,7 @@
       <c r="AT172" s="3"/>
       <c r="AU172" s="3"/>
     </row>
-    <row r="173" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:47">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -9278,7 +9889,7 @@
       <c r="AT173" s="3"/>
       <c r="AU173" s="3"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:47">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -9327,7 +9938,7 @@
       <c r="AT174" s="3"/>
       <c r="AU174" s="3"/>
     </row>
-    <row r="175" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:47">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -9376,7 +9987,7 @@
       <c r="AT175" s="3"/>
       <c r="AU175" s="3"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:47">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -9425,7 +10036,7 @@
       <c r="AT176" s="3"/>
       <c r="AU176" s="3"/>
     </row>
-    <row r="177" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:47">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -9474,7 +10085,7 @@
       <c r="AT177" s="3"/>
       <c r="AU177" s="3"/>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:47">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -9523,7 +10134,7 @@
       <c r="AT178" s="3"/>
       <c r="AU178" s="3"/>
     </row>
-    <row r="179" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:47">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -9572,7 +10183,7 @@
       <c r="AT179" s="3"/>
       <c r="AU179" s="3"/>
     </row>
-    <row r="180" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:47">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -9621,7 +10232,7 @@
       <c r="AT180" s="3"/>
       <c r="AU180" s="3"/>
     </row>
-    <row r="181" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:47">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -9670,7 +10281,7 @@
       <c r="AT181" s="3"/>
       <c r="AU181" s="3"/>
     </row>
-    <row r="182" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:47">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -9719,7 +10330,7 @@
       <c r="AT182" s="3"/>
       <c r="AU182" s="3"/>
     </row>
-    <row r="183" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:47">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -9768,7 +10379,7 @@
       <c r="AT183" s="3"/>
       <c r="AU183" s="3"/>
     </row>
-    <row r="184" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:47">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -9817,7 +10428,7 @@
       <c r="AT184" s="3"/>
       <c r="AU184" s="3"/>
     </row>
-    <row r="185" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:47">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -9866,7 +10477,7 @@
       <c r="AT185" s="3"/>
       <c r="AU185" s="3"/>
     </row>
-    <row r="186" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:47">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -9915,7 +10526,7 @@
       <c r="AT186" s="3"/>
       <c r="AU186" s="3"/>
     </row>
-    <row r="187" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:47">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -9964,7 +10575,7 @@
       <c r="AT187" s="3"/>
       <c r="AU187" s="3"/>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:47">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -10013,7 +10624,7 @@
       <c r="AT188" s="3"/>
       <c r="AU188" s="3"/>
     </row>
-    <row r="189" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:47">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -10062,7 +10673,7 @@
       <c r="AT189" s="3"/>
       <c r="AU189" s="3"/>
     </row>
-    <row r="190" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:47">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -10111,7 +10722,7 @@
       <c r="AT190" s="3"/>
       <c r="AU190" s="3"/>
     </row>
-    <row r="191" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:47">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -10160,7 +10771,7 @@
       <c r="AT191" s="3"/>
       <c r="AU191" s="3"/>
     </row>
-    <row r="192" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:47">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -10209,7 +10820,7 @@
       <c r="AT192" s="3"/>
       <c r="AU192" s="3"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:47">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -10258,7 +10869,7 @@
       <c r="AT193" s="3"/>
       <c r="AU193" s="3"/>
     </row>
-    <row r="194" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:47">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -10307,7 +10918,7 @@
       <c r="AT194" s="3"/>
       <c r="AU194" s="3"/>
     </row>
-    <row r="195" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:47">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -10356,7 +10967,7 @@
       <c r="AT195" s="3"/>
       <c r="AU195" s="3"/>
     </row>
-    <row r="196" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:47">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -10405,7 +11016,7 @@
       <c r="AT196" s="3"/>
       <c r="AU196" s="3"/>
     </row>
-    <row r="197" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:47">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -10454,7 +11065,7 @@
       <c r="AT197" s="3"/>
       <c r="AU197" s="3"/>
     </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:47">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -10503,7 +11114,7 @@
       <c r="AT198" s="3"/>
       <c r="AU198" s="3"/>
     </row>
-    <row r="199" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:47">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -10552,7 +11163,7 @@
       <c r="AT199" s="3"/>
       <c r="AU199" s="3"/>
     </row>
-    <row r="200" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:47">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -10601,7 +11212,7 @@
       <c r="AT200" s="3"/>
       <c r="AU200" s="3"/>
     </row>
-    <row r="201" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:47">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -10650,7 +11261,7 @@
       <c r="AT201" s="3"/>
       <c r="AU201" s="3"/>
     </row>
-    <row r="202" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:47">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -10699,7 +11310,7 @@
       <c r="AT202" s="3"/>
       <c r="AU202" s="3"/>
     </row>
-    <row r="203" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:47">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -10749,8 +11360,8 @@
       <c r="AU203" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>